--- a/natmiOut/OldD4/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +95,6 @@
   </si>
   <si>
     <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.17278401833956</v>
+        <v>0.251116</v>
       </c>
       <c r="H2">
-        <v>3.17278401833956</v>
+        <v>0.753348</v>
       </c>
       <c r="I2">
-        <v>0.4041743848273772</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J2">
-        <v>0.4041743848273772</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.0868983542685</v>
+        <v>24.43316566666667</v>
       </c>
       <c r="N2">
-        <v>19.0868983542685</v>
+        <v>73.299497</v>
       </c>
       <c r="O2">
-        <v>0.2106170354463769</v>
+        <v>0.2327873509383368</v>
       </c>
       <c r="P2">
-        <v>0.2106170354463769</v>
+        <v>0.2542402694696193</v>
       </c>
       <c r="Q2">
-        <v>60.55860605809475</v>
+        <v>6.135558829550667</v>
       </c>
       <c r="R2">
-        <v>60.55860605809475</v>
+        <v>55.220029465956</v>
       </c>
       <c r="S2">
-        <v>0.08512601073570526</v>
+        <v>0.005818901133619509</v>
       </c>
       <c r="T2">
-        <v>0.08512601073570526</v>
+        <v>0.007855027852659848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.17278401833956</v>
+        <v>0.251116</v>
       </c>
       <c r="H3">
-        <v>3.17278401833956</v>
+        <v>0.753348</v>
       </c>
       <c r="I3">
-        <v>0.4041743848273772</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J3">
-        <v>0.4041743848273772</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>48.2327932854128</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N3">
-        <v>48.2327932854128</v>
+        <v>161.160385</v>
       </c>
       <c r="O3">
-        <v>0.5322314681263929</v>
+        <v>0.511819325313412</v>
       </c>
       <c r="P3">
-        <v>0.5322314681263929</v>
+        <v>0.558986915152059</v>
       </c>
       <c r="Q3">
-        <v>153.0322356958334</v>
+        <v>13.48998374655334</v>
       </c>
       <c r="R3">
-        <v>153.0322356958334</v>
+        <v>121.40985371898</v>
       </c>
       <c r="S3">
-        <v>0.2151143262157566</v>
+        <v>0.01279376237699225</v>
       </c>
       <c r="T3">
-        <v>0.2151143262157566</v>
+        <v>0.01727050477468331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.17278401833956</v>
+        <v>0.251116</v>
       </c>
       <c r="H4">
-        <v>3.17278401833956</v>
+        <v>0.753348</v>
       </c>
       <c r="I4">
-        <v>0.4041743848273772</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J4">
-        <v>0.4041743848273772</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.100611386345226</v>
+        <v>0.1891813333333333</v>
       </c>
       <c r="N4">
-        <v>0.100611386345226</v>
+        <v>0.567544</v>
       </c>
       <c r="O4">
-        <v>0.001110210340667668</v>
+        <v>0.001802427979839308</v>
       </c>
       <c r="P4">
-        <v>0.001110210340667668</v>
+        <v>0.001968533829036584</v>
       </c>
       <c r="Q4">
-        <v>0.3192181986591201</v>
+        <v>0.04750645970133334</v>
       </c>
       <c r="R4">
-        <v>0.3192181986591201</v>
+        <v>0.427558137312</v>
       </c>
       <c r="S4">
-        <v>0.0004487185814683476</v>
+        <v>4.505463966524833E-05</v>
       </c>
       <c r="T4">
-        <v>0.0004487185814683476</v>
+        <v>6.081997980982026E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.17278401833956</v>
+        <v>0.251116</v>
       </c>
       <c r="H5">
-        <v>3.17278401833956</v>
+        <v>0.753348</v>
       </c>
       <c r="I5">
-        <v>0.4041743848273772</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J5">
-        <v>0.4041743848273772</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>23.2034127328444</v>
+        <v>0.04717133333333334</v>
       </c>
       <c r="N5">
-        <v>23.2034127328444</v>
+        <v>0.141514</v>
       </c>
       <c r="O5">
-        <v>0.2560412860865626</v>
+        <v>0.0004494255831071773</v>
       </c>
       <c r="P5">
-        <v>0.2560412860865626</v>
+        <v>0.0004908431703661446</v>
       </c>
       <c r="Q5">
-        <v>73.61941708970537</v>
+        <v>0.01184547654133333</v>
       </c>
       <c r="R5">
-        <v>73.61941708970537</v>
+        <v>0.106609288872</v>
       </c>
       <c r="S5">
-        <v>0.1034853292944469</v>
+        <v>1.123412859194697E-05</v>
       </c>
       <c r="T5">
-        <v>0.1034853292944469</v>
+        <v>1.516513014463531E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.67725333544934</v>
+        <v>0.251116</v>
       </c>
       <c r="H6">
-        <v>4.67725333544934</v>
+        <v>0.753348</v>
       </c>
       <c r="I6">
-        <v>0.5958256151726229</v>
+        <v>0.02499663796234737</v>
       </c>
       <c r="J6">
-        <v>0.5958256151726229</v>
+        <v>0.03089608058175258</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.0868983542685</v>
+        <v>26.569517</v>
       </c>
       <c r="N6">
-        <v>19.0868983542685</v>
+        <v>53.139034</v>
       </c>
       <c r="O6">
-        <v>0.2106170354463769</v>
+        <v>0.2531414701853045</v>
       </c>
       <c r="P6">
-        <v>0.2106170354463769</v>
+        <v>0.1843134383789191</v>
       </c>
       <c r="Q6">
-        <v>89.27425899088485</v>
+        <v>6.672030830972</v>
       </c>
       <c r="R6">
-        <v>89.27425899088485</v>
+        <v>40.032184985832</v>
       </c>
       <c r="S6">
-        <v>0.1254910247106716</v>
+        <v>0.006327685683478407</v>
       </c>
       <c r="T6">
-        <v>0.1254910247106716</v>
+        <v>0.005694562844454971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.67725333544934</v>
+        <v>3.739612</v>
       </c>
       <c r="H7">
-        <v>4.67725333544934</v>
+        <v>11.218836</v>
       </c>
       <c r="I7">
-        <v>0.5958256151726229</v>
+        <v>0.3722491887559923</v>
       </c>
       <c r="J7">
-        <v>0.5958256151726229</v>
+        <v>0.4601035127052395</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.2327932854128</v>
+        <v>24.43316566666667</v>
       </c>
       <c r="N7">
-        <v>48.2327932854128</v>
+        <v>73.299497</v>
       </c>
       <c r="O7">
-        <v>0.5322314681263929</v>
+        <v>0.2327873509383368</v>
       </c>
       <c r="P7">
-        <v>0.5322314681263929</v>
+        <v>0.2542402694696193</v>
       </c>
       <c r="Q7">
-        <v>225.5969932722355</v>
+        <v>91.37055952505466</v>
       </c>
       <c r="R7">
-        <v>225.5969932722355</v>
+        <v>822.335035725492</v>
       </c>
       <c r="S7">
-        <v>0.3171171419106363</v>
+        <v>0.08665490253945235</v>
       </c>
       <c r="T7">
-        <v>0.3171171419106363</v>
+        <v>0.1169768410540985</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.67725333544934</v>
+        <v>3.739612</v>
       </c>
       <c r="H8">
-        <v>4.67725333544934</v>
+        <v>11.218836</v>
       </c>
       <c r="I8">
-        <v>0.5958256151726229</v>
+        <v>0.3722491887559923</v>
       </c>
       <c r="J8">
-        <v>0.5958256151726229</v>
+        <v>0.4601035127052395</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.100611386345226</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N8">
-        <v>0.100611386345226</v>
+        <v>161.160385</v>
       </c>
       <c r="O8">
-        <v>0.001110210340667668</v>
+        <v>0.511819325313412</v>
       </c>
       <c r="P8">
-        <v>0.001110210340667668</v>
+        <v>0.558986915152059</v>
       </c>
       <c r="Q8">
-        <v>0.4705849423673905</v>
+        <v>200.8924365568733</v>
       </c>
       <c r="R8">
-        <v>0.4705849423673905</v>
+        <v>1808.03192901186</v>
       </c>
       <c r="S8">
-        <v>0.0006614917591993205</v>
+        <v>0.1905243286375569</v>
       </c>
       <c r="T8">
-        <v>0.0006614917591993205</v>
+        <v>0.257191843217728</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,1115 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.739612</v>
+      </c>
+      <c r="H9">
+        <v>11.218836</v>
+      </c>
+      <c r="I9">
+        <v>0.3722491887559923</v>
+      </c>
+      <c r="J9">
+        <v>0.4601035127052395</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1891813333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.567544</v>
+      </c>
+      <c r="O9">
+        <v>0.001802427979839308</v>
+      </c>
+      <c r="P9">
+        <v>0.001968533829036584</v>
+      </c>
+      <c r="Q9">
+        <v>0.7074647843093333</v>
+      </c>
+      <c r="R9">
+        <v>6.367183058784001</v>
+      </c>
+      <c r="S9">
+        <v>0.0006709523532862845</v>
+      </c>
+      <c r="T9">
+        <v>0.0009057293296188278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.739612</v>
+      </c>
+      <c r="H10">
+        <v>11.218836</v>
+      </c>
+      <c r="I10">
+        <v>0.3722491887559923</v>
+      </c>
+      <c r="J10">
+        <v>0.4601035127052395</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.04717133333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.141514</v>
+      </c>
+      <c r="O10">
+        <v>0.0004494255831071773</v>
+      </c>
+      <c r="P10">
+        <v>0.0004908431703661446</v>
+      </c>
+      <c r="Q10">
+        <v>0.1764024841893333</v>
+      </c>
+      <c r="R10">
+        <v>1.587622357704</v>
+      </c>
+      <c r="S10">
+        <v>0.0001672983087178356</v>
+      </c>
+      <c r="T10">
+        <v>0.0002258386668728394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4.67725333544934</v>
-      </c>
-      <c r="H9">
-        <v>4.67725333544934</v>
-      </c>
-      <c r="I9">
-        <v>0.5958256151726229</v>
-      </c>
-      <c r="J9">
-        <v>0.5958256151726229</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>23.2034127328444</v>
-      </c>
-      <c r="N9">
-        <v>23.2034127328444</v>
-      </c>
-      <c r="O9">
-        <v>0.2560412860865626</v>
-      </c>
-      <c r="P9">
-        <v>0.2560412860865626</v>
-      </c>
-      <c r="Q9">
-        <v>108.5282395985041</v>
-      </c>
-      <c r="R9">
-        <v>108.5282395985041</v>
-      </c>
-      <c r="S9">
-        <v>0.1525559567921157</v>
-      </c>
-      <c r="T9">
-        <v>0.1525559567921157</v>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.739612</v>
+      </c>
+      <c r="H11">
+        <v>11.218836</v>
+      </c>
+      <c r="I11">
+        <v>0.3722491887559923</v>
+      </c>
+      <c r="J11">
+        <v>0.4601035127052395</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>26.569517</v>
+      </c>
+      <c r="N11">
+        <v>53.139034</v>
+      </c>
+      <c r="O11">
+        <v>0.2531414701853045</v>
+      </c>
+      <c r="P11">
+        <v>0.1843134383789191</v>
+      </c>
+      <c r="Q11">
+        <v>99.35968460740399</v>
+      </c>
+      <c r="R11">
+        <v>596.158107644424</v>
+      </c>
+      <c r="S11">
+        <v>0.09423170691697881</v>
+      </c>
+      <c r="T11">
+        <v>0.08480326043692135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.127217</v>
+      </c>
+      <c r="I12">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J12">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>24.43316566666667</v>
+      </c>
+      <c r="N12">
+        <v>73.299497</v>
+      </c>
+      <c r="O12">
+        <v>0.2327873509383368</v>
+      </c>
+      <c r="P12">
+        <v>0.2542402694696193</v>
+      </c>
+      <c r="Q12">
+        <v>1.036104678872111</v>
+      </c>
+      <c r="R12">
+        <v>9.324942109848999</v>
+      </c>
+      <c r="S12">
+        <v>0.0009826310622921587</v>
+      </c>
+      <c r="T12">
+        <v>0.001326469411655474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.127217</v>
+      </c>
+      <c r="I13">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J13">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>53.72012833333334</v>
+      </c>
+      <c r="N13">
+        <v>161.160385</v>
+      </c>
+      <c r="O13">
+        <v>0.511819325313412</v>
+      </c>
+      <c r="P13">
+        <v>0.558986915152059</v>
+      </c>
+      <c r="Q13">
+        <v>2.278037855393889</v>
+      </c>
+      <c r="R13">
+        <v>20.502340698545</v>
+      </c>
+      <c r="S13">
+        <v>0.002160467762991106</v>
+      </c>
+      <c r="T13">
+        <v>0.002916450041575588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.127217</v>
+      </c>
+      <c r="I14">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J14">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1891813333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.567544</v>
+      </c>
+      <c r="O14">
+        <v>0.001802427979839308</v>
+      </c>
+      <c r="P14">
+        <v>0.001968533829036584</v>
+      </c>
+      <c r="Q14">
+        <v>0.00802236056088889</v>
+      </c>
+      <c r="R14">
+        <v>0.072201245048</v>
+      </c>
+      <c r="S14">
+        <v>7.608324564867626E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.027059920709407E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.127217</v>
+      </c>
+      <c r="I15">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J15">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.04717133333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.141514</v>
+      </c>
+      <c r="O15">
+        <v>0.0004494255831071773</v>
+      </c>
+      <c r="P15">
+        <v>0.0004908431703661446</v>
+      </c>
+      <c r="Q15">
+        <v>0.002000331837555556</v>
+      </c>
+      <c r="R15">
+        <v>0.018002986538</v>
+      </c>
+      <c r="S15">
+        <v>1.897094220840459E-06</v>
+      </c>
+      <c r="T15">
+        <v>2.560917878072379E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04240566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.127217</v>
+      </c>
+      <c r="I16">
+        <v>0.004221153161163162</v>
+      </c>
+      <c r="J16">
+        <v>0.005217385170424316</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.569517</v>
+      </c>
+      <c r="N16">
+        <v>53.139034</v>
+      </c>
+      <c r="O16">
+        <v>0.2531414701853045</v>
+      </c>
+      <c r="P16">
+        <v>0.1843134383789191</v>
+      </c>
+      <c r="Q16">
+        <v>1.126698081396333</v>
+      </c>
+      <c r="R16">
+        <v>6.760188488378</v>
+      </c>
+      <c r="S16">
+        <v>0.001068548917094188</v>
+      </c>
+      <c r="T16">
+        <v>0.0009616342001080883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.774514</v>
+      </c>
+      <c r="I17">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J17">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>24.43316566666667</v>
+      </c>
+      <c r="N17">
+        <v>73.299497</v>
+      </c>
+      <c r="O17">
+        <v>0.2327873509383368</v>
+      </c>
+      <c r="P17">
+        <v>0.2542402694696193</v>
+      </c>
+      <c r="Q17">
+        <v>6.307942957717557</v>
+      </c>
+      <c r="R17">
+        <v>56.771486619458</v>
+      </c>
+      <c r="S17">
+        <v>0.005982388474654716</v>
+      </c>
+      <c r="T17">
+        <v>0.008075722033210402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.774514</v>
+      </c>
+      <c r="I18">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J18">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>53.72012833333334</v>
+      </c>
+      <c r="N18">
+        <v>161.160385</v>
+      </c>
+      <c r="O18">
+        <v>0.511819325313412</v>
+      </c>
+      <c r="P18">
+        <v>0.558986915152059</v>
+      </c>
+      <c r="Q18">
+        <v>13.86899715865445</v>
+      </c>
+      <c r="R18">
+        <v>124.82097442789</v>
+      </c>
+      <c r="S18">
+        <v>0.01315321481394227</v>
+      </c>
+      <c r="T18">
+        <v>0.01775573537735425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.774514</v>
+      </c>
+      <c r="I19">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J19">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1891813333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.567544</v>
+      </c>
+      <c r="O19">
+        <v>0.001802427979839308</v>
+      </c>
+      <c r="P19">
+        <v>0.001968533829036584</v>
+      </c>
+      <c r="Q19">
+        <v>0.04884119706844445</v>
+      </c>
+      <c r="R19">
+        <v>0.4395707736160001</v>
+      </c>
+      <c r="S19">
+        <v>4.632049090950018E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.252877268197849E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.774514</v>
+      </c>
+      <c r="I20">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J20">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.04717133333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.141514</v>
+      </c>
+      <c r="O20">
+        <v>0.0004494255831071773</v>
+      </c>
+      <c r="P20">
+        <v>0.0004908431703661446</v>
+      </c>
+      <c r="Q20">
+        <v>0.01217828602177778</v>
+      </c>
+      <c r="R20">
+        <v>0.109604574196</v>
+      </c>
+      <c r="S20">
+        <v>1.154976169348457E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.559120832449555E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2581713333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.774514</v>
+      </c>
+      <c r="I21">
+        <v>0.02569894133225218</v>
+      </c>
+      <c r="J21">
+        <v>0.03176413417928436</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.569517</v>
+      </c>
+      <c r="N21">
+        <v>53.139034</v>
+      </c>
+      <c r="O21">
+        <v>0.2531414701853045</v>
+      </c>
+      <c r="P21">
+        <v>0.1843134383789191</v>
+      </c>
+      <c r="Q21">
+        <v>6.859487629912667</v>
+      </c>
+      <c r="R21">
+        <v>41.156925779476</v>
+      </c>
+      <c r="S21">
+        <v>0.006505467791052203</v>
+      </c>
+      <c r="T21">
+        <v>0.005854556787713246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.754686</v>
+      </c>
+      <c r="H22">
+        <v>11.509372</v>
+      </c>
+      <c r="I22">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J22">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>24.43316566666667</v>
+      </c>
+      <c r="N22">
+        <v>73.299497</v>
+      </c>
+      <c r="O22">
+        <v>0.2327873509383368</v>
+      </c>
+      <c r="P22">
+        <v>0.2542402694696193</v>
+      </c>
+      <c r="Q22">
+        <v>140.6051963976473</v>
+      </c>
+      <c r="R22">
+        <v>843.6311783858839</v>
+      </c>
+      <c r="S22">
+        <v>0.133348527728318</v>
+      </c>
+      <c r="T22">
+        <v>0.1200062091179951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.754686</v>
+      </c>
+      <c r="H23">
+        <v>11.509372</v>
+      </c>
+      <c r="I23">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J23">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>53.72012833333334</v>
+      </c>
+      <c r="N23">
+        <v>161.160385</v>
+      </c>
+      <c r="O23">
+        <v>0.511819325313412</v>
+      </c>
+      <c r="P23">
+        <v>0.558986915152059</v>
+      </c>
+      <c r="Q23">
+        <v>309.1424704380367</v>
+      </c>
+      <c r="R23">
+        <v>1854.85482262822</v>
+      </c>
+      <c r="S23">
+        <v>0.2931875517219295</v>
+      </c>
+      <c r="T23">
+        <v>0.2638523817407178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.754686</v>
+      </c>
+      <c r="H24">
+        <v>11.509372</v>
+      </c>
+      <c r="I24">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J24">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1891813333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.567544</v>
+      </c>
+      <c r="O24">
+        <v>0.001802427979839308</v>
+      </c>
+      <c r="P24">
+        <v>0.001968533829036584</v>
+      </c>
+      <c r="Q24">
+        <v>1.088679170394667</v>
+      </c>
+      <c r="R24">
+        <v>6.532075022368</v>
+      </c>
+      <c r="S24">
+        <v>0.001032492171413407</v>
+      </c>
+      <c r="T24">
+        <v>0.0009291851477188637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.754686</v>
+      </c>
+      <c r="H25">
+        <v>11.509372</v>
+      </c>
+      <c r="I25">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J25">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.04717133333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.141514</v>
+      </c>
+      <c r="O25">
+        <v>0.0004494255831071773</v>
+      </c>
+      <c r="P25">
+        <v>0.0004908431703661446</v>
+      </c>
+      <c r="Q25">
+        <v>0.2714562115346666</v>
+      </c>
+      <c r="R25">
+        <v>1.628737269208</v>
+      </c>
+      <c r="S25">
+        <v>0.0002574462898830697</v>
+      </c>
+      <c r="T25">
+        <v>0.0002316872471461019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.754686</v>
+      </c>
+      <c r="H26">
+        <v>11.509372</v>
+      </c>
+      <c r="I26">
+        <v>0.572834078788245</v>
+      </c>
+      <c r="J26">
+        <v>0.4720188873632993</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>26.569517</v>
+      </c>
+      <c r="N26">
+        <v>53.139034</v>
+      </c>
+      <c r="O26">
+        <v>0.2531414701853045</v>
+      </c>
+      <c r="P26">
+        <v>0.1843134383789191</v>
+      </c>
+      <c r="Q26">
+        <v>152.899227506662</v>
+      </c>
+      <c r="R26">
+        <v>611.5969100266479</v>
+      </c>
+      <c r="S26">
+        <v>0.1450080608767009</v>
+      </c>
+      <c r="T26">
+        <v>0.0869994241097214</v>
       </c>
     </row>
   </sheetData>
